--- a/InputFiles/ICDC/TC13_ICDC_GLIOMA01_FileAssociation-Case.xlsx
+++ b/InputFiles/ICDC/TC13_ICDC_GLIOMA01_FileAssociation-Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4418383D-9950-44E1-B081-96A31C27A353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CAAED-81D8-45C2-9172-7924C54E4C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="40095" yWindow="1350" windowWidth="16695" windowHeight="12645" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,9 @@
         WHEN cf.file_name LIKE '%.csv' THEN 'csv'
         WHEN cf.file_name LIKE '%.doc' THEN 'doc'
         WHEN cf.file_name LIKE '%.docx' THEN 'docx'
-        WHEN cf.file_name LIKE '%.gz' THEN 'gz'
+           WHEN cf.file_name LIKE '%.fastq.gz' THEN 'fastq'
+        WHEN cf.file_name LIKE '%.vcf.gz' THEN 'vcf'
+        WHEN cf.file_name LIKE '%.tsv.gz' THEN 'tsv'
         WHEN cf.file_name LIKE '%.pdf' THEN 'pdf'
         WHEN cf.file_name LIKE '%.rtf' THEN 'rtf'
         WHEN cf.file_name LIKE '%.tbi' THEN 'tbi'
@@ -693,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
